--- a/biology/Zoologie/Hirondelle_à_cuisses_blanches/Hirondelle_à_cuisses_blanches.xlsx
+++ b/biology/Zoologie/Hirondelle_à_cuisses_blanches/Hirondelle_à_cuisses_blanches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_cuisses_blanches</t>
+          <t>Hirondelle_à_cuisses_blanches</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atticora tibialis
 L'Hirondelle à cuisses blanches (Atticora tibialis) est une espèce de passereau de la famille des Hirundinidae. Elle est monotypique (non subdivisée en sous-espèces).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_cuisses_blanches</t>
+          <t>Hirondelle_à_cuisses_blanches</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette hirondelle est de petite taille (environ 12 cm). Le dessus du corps est très sombre tandis que le croupion et les parties inférieures sont plus pâles.
 Le juvénile ressemble à l'adulte mais ses plumes présentent des marges claires.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_cuisses_blanches</t>
+          <t>Hirondelle_à_cuisses_blanches</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peuple les forêts primaires et secondaires ainsi que les villages;
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_cuisses_blanches</t>
+          <t>Hirondelle_à_cuisses_blanches</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend sur le Panamá, la Colombie, le Venezuela, le Suriname la Guyane, le Brésil, la Bolivie, le Pérou et l'Équateur.
 </t>
